--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkdoy\Scripts\GitHub\MA\ExperimentalCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D86E24-A0CD-4A3B-B7F5-00EA85EAEB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66154503-3ECB-406F-922A-F6B3D4CBF166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00A2751F-4E80-40DD-B977-4CC1E6138BFC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fChoice</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>participant</t>
+  </si>
+  <si>
+    <t>tStim</t>
+  </si>
+  <si>
+    <t>bStim</t>
   </si>
 </sst>
 </file>
@@ -396,28 +402,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51F2D81-016F-4B3B-8F4F-7D8315DFEEE8}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
